--- a/meta/program/blancoDbTask.xlsx
+++ b/meta/program/blancoDbTask.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoDbEE/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{323A087C-4EE9-F449-9A50-E8CFFDECE9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED783D5-9668-0848-B6C1-751E2AC74D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="1240" windowWidth="19760" windowHeight="18360" tabRatio="860"/>
+    <workbookView xWindow="17040" yWindow="740" windowWidth="19760" windowHeight="18360" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -308,11 +308,75 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>useruntime</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ランタイムを使用してインタフェイスやアノテーションを設定します。</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">シヨウシテ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">セッテイシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>targetStyle</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>blanco</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出力先フォルダの書式を指定します。&lt;br&gt;
+blanco: [targetdir]/main&lt;br&gt;
+maven: [targetdir]/main/java&lt;br&gt;
+free: [targetdir](targetdirが無指定の場合はblanco/main)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>lineSeparator</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>行末記号をしていします。LF=0x0a, CR=0x0d, CFLF=0x0d0x0a とします。LFがデフォルトです。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>verbose</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>自動生成に関する詳細な情報を出力します。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジドウセイセイジノ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">カンスル </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ショウサイナ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ジョウホウヲ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">シュツリョクシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -673,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -755,6 +819,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1160,13 +1233,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -1209,10 +1284,10 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1221,10 +1296,10 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -1233,10 +1308,10 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1247,10 +1322,10 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
@@ -1281,36 +1356,36 @@
       <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="21">
@@ -1333,7 +1408,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="27">
-        <f t="shared" ref="A15:A36" si="0">A14+1</f>
+        <f t="shared" ref="A15:A40" si="0">A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="28" t="s">
@@ -1517,13 +1592,13 @@
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="27">
@@ -1637,13 +1712,13 @@
       <c r="D30" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="27">
@@ -1671,13 +1746,13 @@
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="30"/>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
     </row>
     <row r="33" spans="1:9" ht="26.5" customHeight="1">
       <c r="A33" s="27">
@@ -1691,13 +1766,13 @@
       <c r="D33" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="A34" s="27">
@@ -1709,13 +1784,13 @@
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="1:9" ht="14" customHeight="1">
       <c r="A35" s="27">
@@ -1729,13 +1804,13 @@
       <c r="D35" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="27">
@@ -1758,41 +1833,124 @@
       <c r="I36" s="32"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
+      <c r="A37" s="27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="1:9" ht="72" customHeight="1">
+      <c r="A38" s="27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="27">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="56"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:I13"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E30:I30"/>
+  <mergeCells count="18">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:I13"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E39:I39"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E53">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E57" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C37">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C41" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1806,7 +1964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/meta/program/blancoDbTask.xlsx
+++ b/meta/program/blancoDbTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoDbEE/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED783D5-9668-0848-B6C1-751E2AC74D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAD6C5D-C0DE-0F44-B12E-9C461BA3AC99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17040" yWindow="740" windowWidth="19760" windowHeight="18360" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -347,29 +347,6 @@
   </si>
   <si>
     <t>行末記号をしていします。LF=0x0a, CR=0x0d, CFLF=0x0d0x0a とします。LFがデフォルトです。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>verbose</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>自動生成に関する詳細な情報を出力します。</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ジドウセイセイジノ </t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">カンスル </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ショウサイナ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">ジョウホウヲ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">シュツリョクシマス。 </t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -820,36 +797,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -868,6 +815,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1239,8 +1216,8 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1284,10 +1261,10 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1296,10 +1273,10 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -1308,10 +1285,10 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1322,10 +1299,10 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
@@ -1356,36 +1333,36 @@
       <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="21">
@@ -1592,13 +1569,13 @@
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="27">
@@ -1712,13 +1689,13 @@
       <c r="D30" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="70"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="27">
@@ -1746,13 +1723,13 @@
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="30"/>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
     </row>
     <row r="33" spans="1:9" ht="26.5" customHeight="1">
       <c r="A33" s="27">
@@ -1766,13 +1743,13 @@
       <c r="D33" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="A34" s="27">
@@ -1784,13 +1761,13 @@
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
     </row>
     <row r="35" spans="1:9" ht="14" customHeight="1">
       <c r="A35" s="27">
@@ -1804,13 +1781,13 @@
       <c r="D35" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="59"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="66"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="27">
@@ -1864,13 +1841,13 @@
       <c r="D38" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="63"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="27">
@@ -1884,33 +1861,24 @@
       <c r="D39" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="56"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="63"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="27">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>81</v>
-      </c>
+      <c r="A40" s="27"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="36"/>
-      <c r="D40" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="56"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="39"/>
@@ -1925,6 +1893,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E39:I39"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1936,13 +1911,6 @@
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E39:I39"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">

--- a/meta/program/blancoDbTask.xlsx
+++ b/meta/program/blancoDbTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoDbEE/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAD6C5D-C0DE-0F44-B12E-9C461BA3AC99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B34A9-E403-AD4A-94A5-886A4F8AEB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17040" yWindow="740" windowWidth="19760" windowHeight="18360" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -347,6 +347,44 @@
   </si>
   <si>
     <t>行末記号をしていします。LF=0x0a, CR=0x0d, CFLF=0x0d0x0a とします。LFがデフォルトです。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>addIntrospected</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>noFinalize</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>micronaut向けに Row クラスに Introspected アノテーションを付与します</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ムケニ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">フヨ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>finalizeメソッドを生成しません。Java9以降は非推奨となっているのでデフォルト値を True とします。</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t xml:space="preserve">ヒスイショウ </t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t xml:space="preserve">チ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -714,28 +752,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,9 +776,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,18 +786,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,17 +810,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -797,32 +829,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,6 +877,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,10 +1249,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1261,10 +1296,10 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1273,10 +1308,10 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -1285,29 +1320,29 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:9">
@@ -1320,586 +1355,628 @@
       <c r="G10"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="21">
+      <c r="A14" s="16">
         <v>1</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="27">
-        <f t="shared" ref="A15:A40" si="0">A14+1</f>
+      <c r="A15" s="22">
+        <f t="shared" ref="A15:A41" si="0">A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="27">
+      <c r="A16" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="27">
+      <c r="A17" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="27">
+      <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="27">
+      <c r="A19" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="27">
+      <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="27">
+      <c r="A21" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="27">
+      <c r="A22" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="27">
+      <c r="A23" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="34" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1">
-      <c r="A24" s="27">
+      <c r="A24" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="59" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="27">
+      <c r="A25" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="27">
+      <c r="A26" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="27">
+      <c r="A27" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="49" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="27">
+      <c r="A28" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="27">
+      <c r="A29" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" ht="27" customHeight="1">
-      <c r="A30" s="27">
+      <c r="A30" s="22">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="52" t="s">
+      <c r="C30" s="31"/>
+      <c r="D30" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="E30" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="27">
+      <c r="A31" s="22">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" ht="27" customHeight="1">
-      <c r="A32" s="27">
+      <c r="A32" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="60" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
     </row>
     <row r="33" spans="1:9" ht="26.5" customHeight="1">
-      <c r="A33" s="27">
+      <c r="A33" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
-      <c r="A34" s="27">
+      <c r="A34" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="55" t="s">
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
     </row>
     <row r="35" spans="1:9" ht="14" customHeight="1">
-      <c r="A35" s="27">
+      <c r="A35" s="22">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="53" t="s">
+      <c r="C35" s="31"/>
+      <c r="D35" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="66"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="27">
+      <c r="A36" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="32"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="27"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="27">
+      <c r="A37" s="22">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="32"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="27"/>
     </row>
     <row r="38" spans="1:9" ht="72" customHeight="1">
-      <c r="A38" s="27">
+      <c r="A38" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="37" t="s">
+      <c r="C38" s="31"/>
+      <c r="D38" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="63"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="57"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="27">
+      <c r="A39" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="37" t="s">
+      <c r="C39" s="31"/>
+      <c r="D39" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="63"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="57"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="27"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="63"/>
+      <c r="A40" s="22">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="57"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="39"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44"/>
+      <c r="A41" s="22">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="57"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="22"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="57"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="34"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E42:I42"/>
     <mergeCell ref="E35:I35"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="E30:I30"/>
     <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E41:I41"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1914,11 +1991,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E57" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E59" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C41" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C43" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1954,9 +2031,9 @@
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1965,28 +2042,28 @@
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="C6" s="39"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7"/>
